--- a/data/tagged colorado Stores.xlsx
+++ b/data/tagged colorado Stores.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1041">
   <si>
     <t>17034 Highway 17</t>
   </si>
@@ -3133,6 +3133,18 @@
   </si>
   <si>
     <t>Record_ID</t>
+  </si>
+  <si>
+    <t>742 1/2</t>
+  </si>
+  <si>
+    <t>965 1/2</t>
+  </si>
+  <si>
+    <t>45 1/2</t>
+  </si>
+  <si>
+    <t>041290</t>
   </si>
 </sst>
 </file>
@@ -3186,7 +3198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3197,10 +3209,13 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3513,8 +3528,8 @@
   <dimension ref="A1:L507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10220,8 +10235,8 @@
       <c r="E232" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F232" s="4">
-        <v>742.5</v>
+      <c r="F232" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="1" t="s">
@@ -10302,8 +10317,8 @@
       <c r="E235" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F235" s="1">
-        <v>41290</v>
+      <c r="F235" s="6" t="s">
+        <v>1040</v>
       </c>
       <c r="H235" s="1">
         <v>6</v>
@@ -14895,7 +14910,7 @@
       <c r="K391" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L391" s="5" t="s">
+      <c r="L391" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -16127,8 +16142,8 @@
       <c r="E434" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F434" s="4">
-        <v>965.5</v>
+      <c r="F434" s="5" t="s">
+        <v>1038</v>
       </c>
       <c r="G434" s="3"/>
       <c r="H434" s="1" t="s">
@@ -17296,8 +17311,8 @@
       <c r="F475" s="1">
         <v>2185</v>
       </c>
-      <c r="H475" s="4">
-        <v>45.5</v>
+      <c r="H475" s="5" t="s">
+        <v>1039</v>
       </c>
       <c r="I475" s="1" t="s">
         <v>740</v>

--- a/data/tagged colorado Stores.xlsx
+++ b/data/tagged colorado Stores.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="1055">
   <si>
     <t>17034 Highway 17</t>
   </si>
@@ -2247,9 +2247,6 @@
     <t>Road</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -2394,9 +2391,6 @@
     <t>28th</t>
   </si>
   <si>
-    <t>Interstate</t>
-  </si>
-  <si>
     <t>Dahlia</t>
   </si>
   <si>
@@ -2970,15 +2964,9 @@
     <t>Yuma</t>
   </si>
   <si>
-    <t>US Highway</t>
-  </si>
-  <si>
     <t>Jackson Gap</t>
   </si>
   <si>
-    <t>County Road</t>
-  </si>
-  <si>
     <t>Santa Fe Trail</t>
   </si>
   <si>
@@ -3021,12 +3009,6 @@
     <t>A6, A7</t>
   </si>
   <si>
-    <t>85 87</t>
-  </si>
-  <si>
-    <t>U.S. Highway</t>
-  </si>
-  <si>
     <t>I-70 Frontage</t>
   </si>
   <si>
@@ -3072,9 +3054,6 @@
     <t>A, B</t>
   </si>
   <si>
-    <t>6 and 24</t>
-  </si>
-  <si>
     <t>Van Buren</t>
   </si>
   <si>
@@ -3090,9 +3069,6 @@
     <t>Rio Grande</t>
   </si>
   <si>
-    <t>Access Road</t>
-  </si>
-  <si>
     <t>18, 19, 20</t>
   </si>
   <si>
@@ -3145,6 +3121,72 @@
   </si>
   <si>
     <t>041290</t>
+  </si>
+  <si>
+    <t>Highway 17</t>
+  </si>
+  <si>
+    <t>US Highway 50</t>
+  </si>
+  <si>
+    <t>County Road T</t>
+  </si>
+  <si>
+    <t>Highway 550</t>
+  </si>
+  <si>
+    <t>Highway 119</t>
+  </si>
+  <si>
+    <t>U.S. Highway 85 87</t>
+  </si>
+  <si>
+    <t>Interstate 25</t>
+  </si>
+  <si>
+    <t>Highway 50</t>
+  </si>
+  <si>
+    <t>Highway 96</t>
+  </si>
+  <si>
+    <t>County Road 203</t>
+  </si>
+  <si>
+    <t>County Road 232</t>
+  </si>
+  <si>
+    <t>Highway 3</t>
+  </si>
+  <si>
+    <t>Highway 285</t>
+  </si>
+  <si>
+    <t>US Highway 285</t>
+  </si>
+  <si>
+    <t>County Road 308</t>
+  </si>
+  <si>
+    <t>County Road 821</t>
+  </si>
+  <si>
+    <t>Highway 133</t>
+  </si>
+  <si>
+    <t>US Highway 40</t>
+  </si>
+  <si>
+    <t>Highway 6</t>
+  </si>
+  <si>
+    <t>Highway 6 and 24</t>
+  </si>
+  <si>
+    <t>Edwards Access</t>
+  </si>
+  <si>
+    <t>Highway 159</t>
   </si>
 </sst>
 </file>
@@ -3528,8 +3570,8 @@
   <dimension ref="A1:L507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H503" sqref="H503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>706</v>
@@ -3604,11 +3646,8 @@
       <c r="F2" s="1">
         <v>17034</v>
       </c>
-      <c r="H2" s="1">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>718</v>
+      <c r="H2" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -3749,11 +3788,8 @@
       <c r="G7" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>982</v>
+      <c r="H7" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -3779,7 +3815,7 @@
         <v>724</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>720</v>
@@ -3999,7 +4035,7 @@
         <v>70</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>739</v>
@@ -4028,10 +4064,7 @@
         <v>60250</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>984</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4054,7 +4087,7 @@
         <v>315</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>720</v>
@@ -4080,10 +4113,10 @@
         <v>1101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>722</v>
@@ -4112,7 +4145,7 @@
         <v>309</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>729</v>
@@ -4121,7 +4154,7 @@
         <v>722</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4143,11 +4176,8 @@
       <c r="F21" s="1">
         <v>157</v>
       </c>
-      <c r="H21" s="1">
-        <v>550</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>718</v>
+      <c r="H21" s="1" t="s">
+        <v>1036</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>739</v>
@@ -4176,7 +4206,7 @@
         <v>1330</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>720</v>
@@ -4202,10 +4232,10 @@
         <v>116</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4231,7 +4261,7 @@
         <v>727</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>729</v>
@@ -4260,7 +4290,7 @@
         <v>730</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>729</v>
@@ -4292,7 +4322,7 @@
         <v>468</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>725</v>
@@ -4324,7 +4354,7 @@
         <v>730</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>729</v>
@@ -4353,7 +4383,7 @@
         <v>727</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>729</v>
@@ -4379,16 +4409,16 @@
         <v>1805</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>740</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4411,19 +4441,19 @@
         <v>765</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>757</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4475,16 +4505,16 @@
         <v>727</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>729</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4506,11 +4536,8 @@
       <c r="F33" s="1">
         <v>5312</v>
       </c>
-      <c r="H33" s="1">
-        <v>119</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>718</v>
+      <c r="H33" s="1" t="s">
+        <v>1037</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>722</v>
@@ -4565,7 +4592,7 @@
         <v>1301</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>720</v>
@@ -4591,7 +4618,7 @@
         <v>910</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>720</v>
@@ -4623,7 +4650,7 @@
         <v>12720</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>726</v>
@@ -4649,10 +4676,10 @@
         <v>3435</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>720</v>
@@ -4684,7 +4711,7 @@
         <v>755</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>725</v>
@@ -4719,7 +4746,7 @@
         <v>4571</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>720</v>
@@ -4745,10 +4772,10 @@
         <v>1917</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4771,10 +4798,10 @@
         <v>875</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4826,7 +4853,7 @@
         <v>1185</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4849,7 +4876,7 @@
         <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>720</v>
@@ -4875,13 +4902,10 @@
         <v>211</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="H46" s="1">
-        <v>119</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>718</v>
+        <v>750</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4907,7 +4931,7 @@
         <v>730</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>729</v>
@@ -4916,7 +4940,7 @@
         <v>739</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -4942,7 +4966,7 @@
         <v>730</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>729</v>
@@ -4974,7 +4998,7 @@
         <v>1410</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>720</v>
@@ -5000,13 +5024,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5029,7 +5053,7 @@
         <v>1795</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>720</v>
@@ -5055,10 +5079,10 @@
         <v>3555</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>720</v>
@@ -5084,10 +5108,10 @@
         <v>1755</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5110,7 +5134,7 @@
         <v>2119</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>720</v>
@@ -5145,7 +5169,7 @@
         <v>727</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>729</v>
@@ -5171,7 +5195,7 @@
         <v>327</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>720</v>
@@ -5197,10 +5221,10 @@
         <v>432</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5223,7 +5247,7 @@
         <v>1750</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>720</v>
@@ -5255,7 +5279,7 @@
         <v>5353</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>720</v>
@@ -5284,7 +5308,7 @@
         <v>730</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>729</v>
@@ -5310,10 +5334,10 @@
         <v>1909</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5339,7 +5363,7 @@
         <v>724</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>729</v>
@@ -5371,7 +5395,7 @@
         <v>11450</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>720</v>
@@ -5380,7 +5404,7 @@
         <v>722</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5403,7 +5427,7 @@
         <v>3054</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>720</v>
@@ -5429,10 +5453,10 @@
         <v>2750</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>739</v>
@@ -5461,7 +5485,7 @@
         <v>1146</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>720</v>
@@ -5487,7 +5511,7 @@
         <v>5420</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>729</v>
@@ -5496,7 +5520,7 @@
         <v>722</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5519,7 +5543,7 @@
         <v>1900</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>740</v>
@@ -5528,7 +5552,7 @@
         <v>722</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5551,7 +5575,7 @@
         <v>1269</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>720</v>
@@ -5577,10 +5601,7 @@
         <v>973</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>1000</v>
+        <v>1038</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>739</v>
@@ -5609,7 +5630,7 @@
         <v>2517</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>726</v>
@@ -5635,10 +5656,10 @@
         <v>104</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5661,7 +5682,7 @@
         <v>2034</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>740</v>
@@ -5687,7 +5708,7 @@
         <v>3005</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>720</v>
@@ -5715,11 +5736,8 @@
       <c r="G75" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H75" s="1">
-        <v>25</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>790</v>
+      <c r="H75" s="1" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5742,7 +5760,7 @@
         <v>5846</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>720</v>
@@ -5768,10 +5786,10 @@
         <v>3019</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5794,7 +5812,7 @@
         <v>2515</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>729</v>
@@ -5881,10 +5899,10 @@
         <v>727</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -5910,7 +5928,7 @@
         <v>730</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>729</v>
@@ -5936,7 +5954,7 @@
         <v>310</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>720</v>
@@ -5962,7 +5980,7 @@
         <v>80</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>740</v>
@@ -5991,7 +6009,7 @@
         <v>730</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>740</v>
@@ -6000,7 +6018,7 @@
         <v>722</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6052,7 +6070,7 @@
         <v>5301</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>726</v>
@@ -6084,16 +6102,16 @@
         <v>813</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6119,7 +6137,7 @@
         <v>730</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>729</v>
@@ -6148,7 +6166,7 @@
         <v>730</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>729</v>
@@ -6174,16 +6192,16 @@
         <v>615</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6206,10 +6224,10 @@
         <v>2020</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6232,7 +6250,7 @@
         <v>125</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>729</v>
@@ -6241,7 +6259,7 @@
         <v>722</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6263,11 +6281,8 @@
       <c r="F94" s="1">
         <v>23344</v>
       </c>
-      <c r="H94" s="1">
-        <v>50</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>718</v>
+      <c r="H94" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>730</v>
@@ -6299,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>726</v>
@@ -6328,7 +6343,7 @@
         <v>730</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>726</v>
@@ -6357,7 +6372,7 @@
         <v>724</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>720</v>
@@ -6386,7 +6401,7 @@
         <v>724</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>720</v>
@@ -6412,7 +6427,7 @@
         <v>1133</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>720</v>
@@ -6469,11 +6484,8 @@
       <c r="G101" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H101" s="1">
-        <v>96</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>718</v>
+      <c r="H101" s="1" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="102" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6496,7 +6508,7 @@
         <v>4497</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>718</v>
@@ -6522,7 +6534,7 @@
         <v>4690</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>726</v>
@@ -6548,7 +6560,7 @@
         <v>2043</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>720</v>
@@ -6574,7 +6586,7 @@
         <v>580</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>720</v>
@@ -6605,11 +6617,11 @@
       <c r="F106" s="1">
         <v>2057</v>
       </c>
+      <c r="G106" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6632,7 +6644,7 @@
         <v>1201</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>720</v>
@@ -6661,7 +6673,7 @@
         <v>727</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>729</v>
@@ -6693,7 +6705,7 @@
         <v>720</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L109" s="1">
         <v>100</v>
@@ -6731,7 +6743,7 @@
         <v>722</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="111" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6754,10 +6766,10 @@
         <v>1669</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="112" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6780,7 +6792,7 @@
         <v>152</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>729</v>
@@ -6809,7 +6821,7 @@
         <v>730</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>729</v>
@@ -6818,7 +6830,7 @@
         <v>722</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6841,7 +6853,7 @@
         <v>329</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>729</v>
@@ -6850,7 +6862,7 @@
         <v>722</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6873,7 +6885,7 @@
         <v>1750</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>720</v>
@@ -6908,7 +6920,7 @@
         <v>727</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>729</v>
@@ -6917,7 +6929,7 @@
         <v>739</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -6940,10 +6952,10 @@
         <v>1075</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>720</v>
@@ -6969,7 +6981,7 @@
         <v>1755</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>729</v>
@@ -6995,7 +7007,7 @@
         <v>107</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>729</v>
@@ -7024,7 +7036,7 @@
         <v>724</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>740</v>
@@ -7050,7 +7062,7 @@
         <v>600</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>726</v>
@@ -7059,7 +7071,7 @@
         <v>739</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7085,7 +7097,7 @@
         <v>727</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>729</v>
@@ -7114,7 +7126,7 @@
         <v>730</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>729</v>
@@ -7146,7 +7158,7 @@
         <v>3480</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>729</v>
@@ -7184,7 +7196,7 @@
         <v>730</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>729</v>
@@ -7210,7 +7222,7 @@
         <v>4975</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>726</v>
@@ -7236,7 +7248,7 @@
         <v>2863</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>720</v>
@@ -7271,7 +7283,7 @@
         <v>727</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>720</v>
@@ -7326,7 +7338,7 @@
         <v>4125</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>720</v>
@@ -7355,7 +7367,7 @@
         <v>730</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>740</v>
@@ -7381,7 +7393,7 @@
         <v>2609</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>720</v>
@@ -7407,10 +7419,10 @@
         <v>1881</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="134" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7462,7 +7474,7 @@
         <v>970</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>720</v>
@@ -7488,7 +7500,7 @@
         <v>2615</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>720</v>
@@ -7546,16 +7558,16 @@
         <v>730</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="139" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7607,7 +7619,7 @@
         <v>1795</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>740</v>
@@ -7616,7 +7628,7 @@
         <v>722</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7639,7 +7651,7 @@
         <v>719</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>720</v>
@@ -7665,7 +7677,7 @@
         <v>4103</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>726</v>
@@ -7694,7 +7706,7 @@
         <v>727</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>729</v>
@@ -7723,7 +7735,7 @@
         <v>730</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>720</v>
@@ -7748,11 +7760,8 @@
       <c r="F145" s="1">
         <v>1644</v>
       </c>
-      <c r="H145" s="1">
-        <v>203</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>984</v>
+      <c r="H145" s="1" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7775,13 +7784,13 @@
         <v>72</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>720</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7807,7 +7816,7 @@
         <v>730</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>720</v>
@@ -7832,11 +7841,8 @@
       <c r="F148" s="1">
         <v>37</v>
       </c>
-      <c r="H148" s="1">
-        <v>232</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>984</v>
+      <c r="H148" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7862,7 +7868,7 @@
         <v>727</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>720</v>
@@ -7900,7 +7906,7 @@
         <v>739</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7923,7 +7929,7 @@
         <v>302</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>720</v>
@@ -7952,7 +7958,7 @@
         <v>727</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>720</v>
@@ -7961,7 +7967,7 @@
         <v>739</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7984,10 +7990,10 @@
         <v>804</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>729</v>
@@ -7996,7 +8002,7 @@
         <v>739</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8022,7 +8028,7 @@
         <v>730</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>720</v>
@@ -8048,7 +8054,7 @@
         <v>520</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>729</v>
@@ -8073,11 +8079,8 @@
       <c r="F156" s="1">
         <v>927</v>
       </c>
-      <c r="H156" s="1">
-        <v>3</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>718</v>
+      <c r="H156" s="1" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8100,10 +8103,10 @@
         <v>118</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8178,10 +8181,10 @@
         <v>402</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8207,13 +8210,13 @@
         <v>724</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8233,13 +8236,13 @@
         <v>40</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="163" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8265,7 +8268,7 @@
         <v>724</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>720</v>
@@ -8291,7 +8294,7 @@
         <v>2600</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>740</v>
@@ -8320,7 +8323,7 @@
         <v>727</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>720</v>
@@ -8346,7 +8349,7 @@
         <v>2539</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>720</v>
@@ -8374,11 +8377,8 @@
       <c r="G167" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H167" s="1">
-        <v>50</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>718</v>
+      <c r="H167" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>739</v>
@@ -8407,7 +8407,7 @@
         <v>4750</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>720</v>
@@ -8433,10 +8433,10 @@
         <v>1901</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>720</v>
@@ -8462,10 +8462,10 @@
         <v>1810</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>4116</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>740</v>
@@ -8514,16 +8514,16 @@
         <v>2093</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8546,13 +8546,13 @@
         <v>1410</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8601,16 +8601,16 @@
         <v>1355</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>739</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8636,7 +8636,7 @@
         <v>730</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>729</v>
@@ -8665,10 +8665,10 @@
         <v>724</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="178" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8717,7 +8717,7 @@
         <v>127</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>720</v>
@@ -8742,11 +8742,8 @@
       <c r="F180" s="1">
         <v>49348</v>
       </c>
-      <c r="H180" s="1">
-        <v>285</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>718</v>
+      <c r="H180" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="181" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -8769,10 +8766,10 @@
         <v>970</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>720</v>
@@ -8804,13 +8801,13 @@
         <v>150</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>722</v>
@@ -8839,10 +8836,10 @@
         <v>258</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>740</v>
@@ -8868,13 +8865,13 @@
         <v>3400</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>739</v>
@@ -8903,7 +8900,7 @@
         <v>1420</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>740</v>
@@ -8932,7 +8929,7 @@
         <v>730</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>729</v>
@@ -8961,7 +8958,7 @@
         <v>727</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>729</v>
@@ -8987,7 +8984,7 @@
         <v>440</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>720</v>
@@ -9016,7 +9013,7 @@
         <v>730</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>729</v>
@@ -9042,7 +9039,7 @@
         <v>3955</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>720</v>
@@ -9068,7 +9065,7 @@
         <v>3980</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>720</v>
@@ -9100,7 +9097,7 @@
         <v>1660</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>720</v>
@@ -9129,7 +9126,7 @@
         <v>730</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>720</v>
@@ -9155,7 +9152,7 @@
         <v>449</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>729</v>
@@ -9181,10 +9178,10 @@
         <v>10575</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>739</v>
@@ -9216,7 +9213,7 @@
         <v>724</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>729</v>
@@ -9242,10 +9239,10 @@
         <v>5740</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>729</v>
@@ -9254,7 +9251,7 @@
         <v>722</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="198" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9277,7 +9274,7 @@
         <v>1030</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>729</v>
@@ -9303,7 +9300,7 @@
         <v>716</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>729</v>
@@ -9329,7 +9326,7 @@
         <v>8411</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>720</v>
@@ -9338,7 +9335,7 @@
         <v>722</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="201" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9361,7 +9358,7 @@
         <v>208</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>729</v>
@@ -9370,7 +9367,7 @@
         <v>739</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="202" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9392,11 +9389,8 @@
       <c r="F202" s="1">
         <v>5320</v>
       </c>
-      <c r="H202" s="1">
-        <v>285</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>982</v>
+      <c r="H202" s="1" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="203" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9448,7 +9442,7 @@
         <v>727</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>729</v>
@@ -9474,10 +9468,10 @@
         <v>2922</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>729</v>
@@ -9506,7 +9500,7 @@
         <v>730</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>729</v>
@@ -9535,7 +9529,7 @@
         <v>727</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>729</v>
@@ -9589,11 +9583,8 @@
       <c r="F209" s="1">
         <v>1221</v>
       </c>
-      <c r="H209" s="1">
-        <v>308</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>984</v>
+      <c r="H209" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="210" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9616,10 +9607,10 @@
         <v>40</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>720</v>
@@ -9645,10 +9636,10 @@
         <v>2262</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="212" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9700,7 +9691,7 @@
         <v>6700</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>740</v>
@@ -9709,7 +9700,7 @@
         <v>739</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="214" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9732,10 +9723,10 @@
         <v>2568</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="215" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9761,7 +9752,7 @@
         <v>727</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>729</v>
@@ -9790,7 +9781,7 @@
         <v>730</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>729</v>
@@ -9819,7 +9810,7 @@
         <v>727</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>740</v>
@@ -9851,10 +9842,10 @@
         <v>1178</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>720</v>
@@ -9880,10 +9871,10 @@
         <v>1568</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="220" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9909,7 +9900,7 @@
         <v>730</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>729</v>
@@ -9918,7 +9909,7 @@
         <v>722</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="221" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -9970,7 +9961,7 @@
         <v>727</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>729</v>
@@ -9995,11 +9986,8 @@
       <c r="F223" s="1">
         <v>8</v>
       </c>
-      <c r="H223" s="1">
-        <v>821</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>984</v>
+      <c r="H223" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="224" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10022,10 +10010,10 @@
         <v>1911</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="225" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10048,10 +10036,10 @@
         <v>2020</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>726</v>
@@ -10077,7 +10065,7 @@
         <v>730</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>720</v>
@@ -10102,11 +10090,8 @@
       <c r="F227" s="1">
         <v>922</v>
       </c>
-      <c r="H227" s="1">
-        <v>133</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>718</v>
+      <c r="H227" s="1" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="228" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10129,10 +10114,10 @@
         <v>4966</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="229" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10155,7 +10140,7 @@
         <v>2818</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>726</v>
@@ -10180,11 +10165,8 @@
       <c r="F230" s="1">
         <v>72399</v>
       </c>
-      <c r="H230" s="1">
-        <v>40</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>982</v>
+      <c r="H230" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>722</v>
@@ -10213,7 +10195,7 @@
         <v>171</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>720</v>
@@ -10236,11 +10218,11 @@
         <v>94</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>729</v>
@@ -10266,10 +10248,10 @@
         <v>235</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10295,7 +10277,7 @@
         <v>730</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>720</v>
@@ -10318,19 +10300,16 @@
         <v>384</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H235" s="1">
-        <v>6</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>718</v>
+        <v>1032</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10353,7 +10332,7 @@
         <v>115</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>729</v>
@@ -10379,7 +10358,7 @@
         <v>3835</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>720</v>
@@ -10388,7 +10367,7 @@
         <v>722</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10411,7 +10390,7 @@
         <v>127</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10437,7 +10416,7 @@
         <v>727</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>729</v>
@@ -10469,10 +10448,10 @@
         <v>6260</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>740</v>
@@ -10498,10 +10477,10 @@
         <v>4343</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>740</v>
@@ -10510,7 +10489,7 @@
         <v>722</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="242" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10533,7 +10512,7 @@
         <v>403</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>720</v>
@@ -10565,7 +10544,7 @@
         <v>1021</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>720</v>
@@ -10574,7 +10553,7 @@
         <v>739</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="244" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10600,7 +10579,7 @@
         <v>730</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>729</v>
@@ -10652,16 +10631,16 @@
         <v>4550</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>720</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="247" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10687,16 +10666,16 @@
         <v>730</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="248" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10719,10 +10698,10 @@
         <v>5854</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10745,10 +10724,10 @@
         <v>1325</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>720</v>
@@ -10757,7 +10736,7 @@
         <v>739</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="250" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10783,13 +10762,13 @@
         <v>730</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="251" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10815,7 +10794,7 @@
         <v>730</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>720</v>
@@ -10824,7 +10803,7 @@
         <v>722</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="252" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10879,10 +10858,10 @@
         <v>6617</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>729</v>
@@ -10911,7 +10890,7 @@
         <v>730</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>729</v>
@@ -10937,19 +10916,19 @@
         <v>108</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>720</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="256" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -10972,7 +10951,7 @@
         <v>82</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>725</v>
@@ -11001,7 +10980,7 @@
         <v>3944</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>720</v>
@@ -11027,10 +11006,7 @@
         <v>4550</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>718</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="259" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11053,7 +11029,7 @@
         <v>4305</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>726</v>
@@ -11079,7 +11055,7 @@
         <v>205</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>720</v>
@@ -11108,7 +11084,7 @@
         <v>727</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>720</v>
@@ -11134,10 +11110,10 @@
         <v>206</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="263" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11160,7 +11136,7 @@
         <v>130</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>720</v>
@@ -11192,7 +11168,7 @@
         <v>1400</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>720</v>
@@ -11218,7 +11194,7 @@
         <v>5070</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>720</v>
@@ -11244,7 +11220,7 @@
         <v>380</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>720</v>
@@ -11270,7 +11246,7 @@
         <v>3950</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>720</v>
@@ -11296,10 +11272,10 @@
         <v>330</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>720</v>
@@ -11325,7 +11301,7 @@
         <v>503</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>720</v>
@@ -11351,10 +11327,10 @@
         <v>1126</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>726</v>
@@ -11383,7 +11359,7 @@
         <v>730</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>729</v>
@@ -11412,7 +11388,7 @@
         <v>730</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>729</v>
@@ -11438,7 +11414,7 @@
         <v>2647</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>729</v>
@@ -11473,7 +11449,7 @@
         <v>727</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>729</v>
@@ -11499,10 +11475,10 @@
         <v>124</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11569,7 +11545,7 @@
         <v>722</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11592,7 +11568,7 @@
         <v>5290</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>729</v>
@@ -11601,7 +11577,7 @@
         <v>739</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11624,7 +11600,7 @@
         <v>4071</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>718</v>
@@ -11653,7 +11629,7 @@
         <v>724</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>720</v>
@@ -11682,10 +11658,10 @@
         <v>724</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>739</v>
@@ -11714,7 +11690,7 @@
         <v>141</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>729</v>
@@ -11769,7 +11745,7 @@
         <v>1750</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>720</v>
@@ -11778,7 +11754,7 @@
         <v>722</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11804,7 +11780,7 @@
         <v>724</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>720</v>
@@ -11833,7 +11809,7 @@
         <v>727</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>720</v>
@@ -11862,10 +11838,10 @@
         <v>730</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11888,7 +11864,7 @@
         <v>216</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>720</v>
@@ -11897,7 +11873,7 @@
         <v>739</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11920,7 +11896,7 @@
         <v>1736</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>720</v>
@@ -11946,7 +11922,7 @@
         <v>4800</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>720</v>
@@ -11975,7 +11951,7 @@
         <v>727</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>729</v>
@@ -12004,7 +11980,7 @@
         <v>730</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>729</v>
@@ -12033,10 +12009,10 @@
         <v>730</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="294" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12059,10 +12035,10 @@
         <v>3321</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="295" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12084,11 +12060,8 @@
       <c r="F295" s="1">
         <v>30899</v>
       </c>
-      <c r="H295" s="1">
-        <v>50</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>718</v>
+      <c r="H295" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>730</v>
@@ -12146,16 +12119,16 @@
         <v>724</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>720</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="298" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12178,10 +12151,10 @@
         <v>1350</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>726</v>
@@ -12190,7 +12163,7 @@
         <v>722</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="299" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12216,7 +12189,7 @@
         <v>724</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="300" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12271,7 +12244,7 @@
         <v>2042</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>720</v>
@@ -12297,7 +12270,7 @@
         <v>1568</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>725</v>
@@ -12326,10 +12299,10 @@
         <v>2291</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>720</v>
@@ -12357,11 +12330,8 @@
       <c r="G304" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H304" s="1">
-        <v>50</v>
-      </c>
-      <c r="I304" s="1" t="s">
-        <v>718</v>
+      <c r="H304" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>739</v>
@@ -12390,7 +12360,7 @@
         <v>3450</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>726</v>
@@ -12416,7 +12386,7 @@
         <v>3954</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>720</v>
@@ -12442,7 +12412,7 @@
         <v>1909</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="308" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12468,10 +12438,10 @@
         <v>727</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12494,10 +12464,10 @@
         <v>817</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12520,7 +12490,7 @@
         <v>513</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>720</v>
@@ -12546,7 +12516,7 @@
         <v>2313</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>726</v>
@@ -12572,10 +12542,10 @@
         <v>6712</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>729</v>
@@ -12604,7 +12574,7 @@
         <v>730</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>729</v>
@@ -12662,10 +12632,10 @@
         <v>730</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="316" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12688,7 +12658,7 @@
         <v>540</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>720</v>
@@ -12717,7 +12687,7 @@
         <v>724</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>740</v>
@@ -12743,10 +12713,10 @@
         <v>4332</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="319" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12769,7 +12739,7 @@
         <v>150</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>726</v>
@@ -12795,16 +12765,16 @@
         <v>57</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>487</v>
+        <v>1053</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>1022</v>
+        <v>740</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="321" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12827,10 +12797,10 @@
         <v>135</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>720</v>
@@ -12856,16 +12826,16 @@
         <v>3473</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>729</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="323" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12888,10 +12858,10 @@
         <v>1325</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>740</v>
@@ -12943,7 +12913,7 @@
         <v>2045</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>726</v>
@@ -12978,7 +12948,7 @@
         <v>730</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>726</v>
@@ -13004,10 +12974,10 @@
         <v>2777</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>726</v>
@@ -13033,10 +13003,10 @@
         <v>4740</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="329" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13062,7 +13032,7 @@
         <v>727</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>720</v>
@@ -13071,7 +13041,7 @@
         <v>739</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="330" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13094,7 +13064,7 @@
         <v>1534</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>720</v>
@@ -13123,7 +13093,7 @@
         <v>727</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>729</v>
@@ -13152,7 +13122,7 @@
         <v>730</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>729</v>
@@ -13178,7 +13148,7 @@
         <v>1620</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>720</v>
@@ -13187,7 +13157,7 @@
         <v>739</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="334" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13213,10 +13183,10 @@
         <v>724</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K334" s="1" t="s">
         <v>739</v>
@@ -13245,7 +13215,7 @@
         <v>5565</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>729</v>
@@ -13254,7 +13224,7 @@
         <v>739</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13277,7 +13247,7 @@
         <v>1795</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>740</v>
@@ -13286,7 +13256,7 @@
         <v>739</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="337" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13309,7 +13279,7 @@
         <v>2150</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>740</v>
@@ -13338,16 +13308,16 @@
         <v>730</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>729</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="339" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13373,7 +13343,7 @@
         <v>730</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>720</v>
@@ -13382,7 +13352,7 @@
         <v>739</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="340" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13405,10 +13375,10 @@
         <v>2251</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="341" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13460,7 +13430,7 @@
         <v>724</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>720</v>
@@ -13486,7 +13456,7 @@
         <v>260</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13509,10 +13479,10 @@
         <v>1445</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>720</v>
@@ -13541,7 +13511,7 @@
         <v>730</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>729</v>
@@ -13573,7 +13543,7 @@
         <v>2301</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>720</v>
@@ -13605,7 +13575,7 @@
         <v>2553</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>726</v>
@@ -13634,10 +13604,10 @@
         <v>730</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>739</v>
@@ -13666,7 +13636,7 @@
         <v>423</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>729</v>
@@ -13700,11 +13670,8 @@
       <c r="G350" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H350" s="1">
-        <v>50</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>718</v>
+      <c r="H350" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="K350" s="1" t="s">
         <v>722</v>
@@ -13733,10 +13700,10 @@
         <v>10555</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>729</v>
@@ -13765,7 +13732,7 @@
         <v>730</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>729</v>
@@ -13774,7 +13741,7 @@
         <v>722</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13797,7 +13764,7 @@
         <v>27</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>729</v>
@@ -13826,7 +13793,7 @@
         <v>730</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I354" s="1" t="s">
         <v>729</v>
@@ -13835,7 +13802,7 @@
         <v>722</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13858,10 +13825,10 @@
         <v>165</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13884,7 +13851,7 @@
         <v>210</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="I356" s="1" t="s">
         <v>726</v>
@@ -13893,7 +13860,7 @@
         <v>739</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13915,17 +13882,14 @@
       <c r="F357" s="1">
         <v>40690</v>
       </c>
-      <c r="H357" s="1">
-        <v>6</v>
-      </c>
-      <c r="I357" s="1" t="s">
-        <v>718</v>
+      <c r="H357" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="K357" s="1" t="s">
         <v>739</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="358" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -13951,7 +13915,7 @@
         <v>724</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>720</v>
@@ -13980,7 +13944,7 @@
         <v>145</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>720</v>
@@ -14006,7 +13970,7 @@
         <v>502</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>720</v>
@@ -14032,10 +13996,10 @@
         <v>1239</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14058,7 +14022,7 @@
         <v>4935</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I362" s="1" t="s">
         <v>720</v>
@@ -14087,7 +14051,7 @@
         <v>730</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>729</v>
@@ -14113,10 +14077,10 @@
         <v>308</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I364" s="1" t="s">
         <v>720</v>
@@ -14142,10 +14106,10 @@
         <v>850</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14171,7 +14135,7 @@
         <v>727</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>729</v>
@@ -14200,7 +14164,7 @@
         <v>724</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>726</v>
@@ -14229,7 +14193,7 @@
         <v>727</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>729</v>
@@ -14255,13 +14219,13 @@
         <v>19</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14284,7 +14248,7 @@
         <v>23</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>740</v>
@@ -14310,7 +14274,7 @@
         <v>4000</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I371" s="1" t="s">
         <v>740</v>
@@ -14336,19 +14300,19 @@
         <v>2645</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14374,7 +14338,7 @@
         <v>727</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I373" s="1" t="s">
         <v>729</v>
@@ -14400,7 +14364,7 @@
         <v>7050</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I374" s="1" t="s">
         <v>740</v>
@@ -14426,10 +14390,10 @@
         <v>3140</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14452,13 +14416,13 @@
         <v>2730</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14510,7 +14474,7 @@
         <v>138</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I378" s="1" t="s">
         <v>720</v>
@@ -14519,7 +14483,7 @@
         <v>722</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="379" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14542,10 +14506,10 @@
         <v>112</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>727</v>
@@ -14577,10 +14541,10 @@
         <v>254</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I380" s="1" t="s">
         <v>740</v>
@@ -14631,17 +14595,14 @@
       <c r="F382" s="1">
         <v>40814</v>
       </c>
-      <c r="H382" s="1">
-        <v>6</v>
-      </c>
-      <c r="I382" s="1" t="s">
-        <v>718</v>
+      <c r="H382" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="383" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14667,7 +14628,7 @@
         <v>730</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>729</v>
@@ -14676,7 +14637,7 @@
         <v>722</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="384" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14702,7 +14663,7 @@
         <v>727</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I384" s="1" t="s">
         <v>729</v>
@@ -14728,10 +14689,10 @@
         <v>1712</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I385" s="1" t="s">
         <v>740</v>
@@ -14760,7 +14721,7 @@
         <v>730</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>720</v>
@@ -14791,11 +14752,8 @@
       <c r="F387" s="1">
         <v>34132</v>
       </c>
-      <c r="H387" s="1">
-        <v>285</v>
-      </c>
-      <c r="I387" s="1" t="s">
-        <v>718</v>
+      <c r="H387" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14821,7 +14779,7 @@
         <v>730</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>740</v>
@@ -14847,7 +14805,7 @@
         <v>228</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I389" s="1" t="s">
         <v>729</v>
@@ -14876,7 +14834,7 @@
         <v>730</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I390" s="1" t="s">
         <v>729</v>
@@ -14901,17 +14859,14 @@
       <c r="F391" s="1">
         <v>79025</v>
       </c>
-      <c r="H391" s="1">
-        <v>40</v>
-      </c>
-      <c r="I391" s="1" t="s">
-        <v>982</v>
+      <c r="H391" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14934,10 +14889,10 @@
         <v>399</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I392" s="1" t="s">
         <v>720</v>
@@ -14992,10 +14947,10 @@
         <v>2729</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15021,7 +14976,7 @@
         <v>730</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>729</v>
@@ -15056,7 +15011,7 @@
         <v>727</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I396" s="1" t="s">
         <v>729</v>
@@ -15085,7 +15040,7 @@
         <v>730</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I397" s="1" t="s">
         <v>720</v>
@@ -15111,7 +15066,7 @@
         <v>734</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I398" s="1" t="s">
         <v>726</v>
@@ -15137,7 +15092,7 @@
         <v>511</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I399" s="1" t="s">
         <v>720</v>
@@ -15169,7 +15124,7 @@
         <v>2801</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>729</v>
@@ -15195,10 +15150,10 @@
         <v>2268</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I401" s="1" t="s">
         <v>720</v>
@@ -15224,10 +15179,10 @@
         <v>492</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I402" s="1" t="s">
         <v>726</v>
@@ -15253,7 +15208,7 @@
         <v>301</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>720</v>
@@ -15262,7 +15217,7 @@
         <v>722</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="404" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15285,7 +15240,7 @@
         <v>4845</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="405" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15308,13 +15263,10 @@
         <v>3377</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="H405" s="1">
-        <v>25</v>
-      </c>
-      <c r="I405" s="1" t="s">
-        <v>790</v>
+        <v>750</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="406" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15336,11 +15288,8 @@
       <c r="F406" s="1">
         <v>29577</v>
       </c>
-      <c r="H406" s="1">
-        <v>159</v>
-      </c>
-      <c r="I406" s="1" t="s">
-        <v>718</v>
+      <c r="H406" s="1" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="407" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15363,10 +15312,10 @@
         <v>1505</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="408" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15421,7 +15370,7 @@
         <v>724</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="410" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15444,19 +15393,19 @@
         <v>428</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>726</v>
       </c>
       <c r="K410" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="411" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15479,16 +15428,16 @@
         <v>1408</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="412" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15511,7 +15460,7 @@
         <v>5844</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I412" s="1" t="s">
         <v>720</v>
@@ -15575,7 +15524,7 @@
         <v>724</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I414" s="1" t="s">
         <v>720</v>
@@ -15601,7 +15550,7 @@
         <v>4305</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I415" s="1" t="s">
         <v>729</v>
@@ -15627,10 +15576,10 @@
         <v>110</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="417" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15653,7 +15602,7 @@
         <v>4820</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I417" s="1" t="s">
         <v>740</v>
@@ -15679,13 +15628,13 @@
         <v>2117</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I418" s="1" t="s">
         <v>720</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="419" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15708,10 +15657,10 @@
         <v>2042</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I419" s="1" t="s">
         <v>720</v>
@@ -15737,7 +15686,7 @@
         <v>43</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I420" s="1" t="s">
         <v>720</v>
@@ -15763,7 +15712,7 @@
         <v>2897</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I421" s="1" t="s">
         <v>729</v>
@@ -15824,7 +15773,7 @@
         <v>1286</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I423" s="1" t="s">
         <v>729</v>
@@ -15885,10 +15834,10 @@
         <v>1724</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="426" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15914,7 +15863,7 @@
         <v>730</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I426" s="1" t="s">
         <v>729</v>
@@ -15942,11 +15891,8 @@
       <c r="G427" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H427" s="1">
-        <v>25</v>
-      </c>
-      <c r="I427" s="1" t="s">
-        <v>790</v>
+      <c r="H427" s="1" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="428" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15969,7 +15915,7 @@
         <v>5433</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I428" s="1" t="s">
         <v>720</v>
@@ -15995,7 +15941,7 @@
         <v>5005</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>725</v>
@@ -16024,16 +15970,16 @@
         <v>250</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I430" s="1" t="s">
         <v>720</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="431" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16056,16 +16002,16 @@
         <v>840</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I431" s="1" t="s">
         <v>720</v>
       </c>
       <c r="K431" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="432" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16091,7 +16037,7 @@
         <v>730</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I432" s="1" t="s">
         <v>729</v>
@@ -16120,7 +16066,7 @@
         <v>724</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>720</v>
@@ -16143,11 +16089,11 @@
         <v>94</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="G434" s="3"/>
       <c r="H434" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I434" s="1" t="s">
         <v>729</v>
@@ -16176,7 +16122,7 @@
         <v>730</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I435" s="1" t="s">
         <v>720</v>
@@ -16202,10 +16148,10 @@
         <v>650</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I436" s="1" t="s">
         <v>720</v>
@@ -16263,7 +16209,7 @@
         <v>5275</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I438" s="1" t="s">
         <v>720</v>
@@ -16295,10 +16241,10 @@
         <v>470</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="440" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16321,7 +16267,7 @@
         <v>4400</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I440" s="1" t="s">
         <v>720</v>
@@ -16350,7 +16296,7 @@
         <v>727</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I441" s="1" t="s">
         <v>729</v>
@@ -16376,10 +16322,10 @@
         <v>350</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I442" s="1" t="s">
         <v>720</v>
@@ -16408,7 +16354,7 @@
         <v>727</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I443" s="1" t="s">
         <v>729</v>
@@ -16434,7 +16380,7 @@
         <v>645</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I444" s="1" t="s">
         <v>720</v>
@@ -16460,13 +16406,13 @@
         <v>3179</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>732</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="446" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16489,16 +16435,16 @@
         <v>1450</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I446" s="1" t="s">
         <v>720</v>
       </c>
       <c r="K446" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="447" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16579,7 +16525,7 @@
         <v>724</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I449" s="1" t="s">
         <v>729</v>
@@ -16605,10 +16551,10 @@
         <v>1423</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16634,7 +16580,7 @@
         <v>724</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I451" s="1" t="s">
         <v>720</v>
@@ -16663,7 +16609,7 @@
         <v>730</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I452" s="1" t="s">
         <v>729</v>
@@ -16692,7 +16638,7 @@
         <v>730</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I453" s="1" t="s">
         <v>729</v>
@@ -16718,10 +16664,10 @@
         <v>1207</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="455" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16744,7 +16690,7 @@
         <v>1995</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I455" s="1" t="s">
         <v>720</v>
@@ -16770,7 +16716,7 @@
         <v>8401</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I456" s="1" t="s">
         <v>740</v>
@@ -16796,10 +16742,10 @@
         <v>985</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I457" s="1" t="s">
         <v>720</v>
@@ -16828,7 +16774,7 @@
         <v>724</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I458" s="1" t="s">
         <v>720</v>
@@ -16857,7 +16803,7 @@
         <v>730</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I459" s="1" t="s">
         <v>720</v>
@@ -16886,10 +16832,10 @@
         <v>724</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="461" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16912,10 +16858,10 @@
         <v>2070</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I461" s="1" t="s">
         <v>720</v>
@@ -16941,13 +16887,13 @@
         <v>1714</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="463" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16973,10 +16919,10 @@
         <v>724</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="464" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17002,7 +16948,7 @@
         <v>730</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I464" s="1" t="s">
         <v>729</v>
@@ -17031,7 +16977,7 @@
         <v>730</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I465" s="1" t="s">
         <v>720</v>
@@ -17066,7 +17012,7 @@
         <v>730</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I466" s="1" t="s">
         <v>729</v>
@@ -17124,7 +17070,7 @@
         <v>724</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I468" s="1" t="s">
         <v>720</v>
@@ -17149,11 +17095,8 @@
       <c r="F469" s="1">
         <v>909</v>
       </c>
-      <c r="H469" s="1">
-        <v>308</v>
-      </c>
-      <c r="I469" s="1" t="s">
-        <v>984</v>
+      <c r="H469" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="470" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17176,7 +17119,7 @@
         <v>5550</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I470" s="1" t="s">
         <v>720</v>
@@ -17202,7 +17145,7 @@
         <v>1537</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I471" s="1" t="s">
         <v>720</v>
@@ -17234,7 +17177,7 @@
         <v>3601</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I472" s="1" t="s">
         <v>740</v>
@@ -17260,7 +17203,7 @@
         <v>1000</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I473" s="1" t="s">
         <v>740</v>
@@ -17285,11 +17228,8 @@
       <c r="F474" s="1">
         <v>304</v>
       </c>
-      <c r="H474" s="1">
-        <v>133</v>
-      </c>
-      <c r="I474" s="1" t="s">
-        <v>718</v>
+      <c r="H474" s="1" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="475" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17312,7 +17252,7 @@
         <v>2185</v>
       </c>
       <c r="H475" s="5" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="I475" s="1" t="s">
         <v>740</v>
@@ -17347,7 +17287,7 @@
         <v>724</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I476" s="1" t="s">
         <v>726</v>
@@ -17379,7 +17319,7 @@
         <v>2426</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H477" s="1" t="s">
         <v>725</v>
@@ -17408,7 +17348,7 @@
         <v>3814</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I478" s="1" t="s">
         <v>720</v>
@@ -17434,7 +17374,7 @@
         <v>5050</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I479" s="1" t="s">
         <v>720</v>
@@ -17460,13 +17400,13 @@
         <v>191</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="481" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17489,10 +17429,10 @@
         <v>755</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I481" s="1" t="s">
         <v>720</v>
@@ -17524,7 +17464,7 @@
         <v>800</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I482" s="1" t="s">
         <v>729</v>
@@ -17553,10 +17493,10 @@
         <v>2383</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I483" s="1" t="s">
         <v>720</v>
@@ -17610,11 +17550,8 @@
       <c r="F485" s="1">
         <v>40801</v>
       </c>
-      <c r="H485" s="1">
-        <v>6</v>
-      </c>
-      <c r="I485" s="1" t="s">
-        <v>718</v>
+      <c r="H485" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="K485" s="1" t="s">
         <v>739</v>
@@ -17643,16 +17580,16 @@
         <v>1805</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K486" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="487" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17678,7 +17615,7 @@
         <v>727</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>720</v>
@@ -17687,7 +17624,7 @@
         <v>722</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="488" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17713,7 +17650,7 @@
         <v>727</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I488" s="1" t="s">
         <v>720</v>
@@ -17722,7 +17659,7 @@
         <v>722</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="489" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17745,7 +17682,7 @@
         <v>4501</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I489" s="1" t="s">
         <v>720</v>
@@ -17771,10 +17708,10 @@
         <v>2001</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="491" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17800,7 +17737,7 @@
         <v>727</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I491" s="1" t="s">
         <v>729</v>
@@ -17829,7 +17766,7 @@
         <v>730</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I492" s="1" t="s">
         <v>729</v>
@@ -17855,10 +17792,10 @@
         <v>2394</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="494" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17881,16 +17818,16 @@
         <v>3480</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>722</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="495" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17968,10 +17905,10 @@
         <v>6853</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="498" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -17994,10 +17931,10 @@
         <v>777</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>739</v>
@@ -18026,16 +17963,16 @@
         <v>1400</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L499" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="500" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18061,7 +17998,7 @@
         <v>724</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I500" s="1" t="s">
         <v>720</v>
@@ -18090,7 +18027,7 @@
         <v>724</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="502" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18112,11 +18049,8 @@
       <c r="F502" s="1">
         <v>21950</v>
       </c>
-      <c r="H502" s="1">
-        <v>285</v>
-      </c>
-      <c r="I502" s="1" t="s">
-        <v>718</v>
+      <c r="H502" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="503" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -18139,7 +18073,7 @@
         <v>2506</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I503" s="1" t="s">
         <v>729</v>
@@ -18165,10 +18099,10 @@
         <v>1136</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="505" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
